--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value619.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value619.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.272720826985535</v>
+        <v>1.27246105670929</v>
       </c>
       <c r="B1">
-        <v>2.51015736653736</v>
+        <v>2.926095724105835</v>
       </c>
       <c r="C1">
-        <v>4.43959889780148</v>
+        <v>5.461709499359131</v>
       </c>
       <c r="D1">
-        <v>2.497783921571141</v>
+        <v>1.86314857006073</v>
       </c>
       <c r="E1">
-        <v>1.028665105132423</v>
+        <v>1.026785016059875</v>
       </c>
     </row>
   </sheetData>
